--- a/assets/rse.xlsx
+++ b/assets/rse.xlsx
@@ -41,7 +41,7 @@
     <t xml:space="preserve">"innovation" OR  ~innovation OR "innovation collaborative" OR "innovation ouverte" OR "collaboratif" OR "collaborative" OR "collaboration" "partenariat" OR "innovating" OR "open innovation" OR "partnership"</t>
   </si>
   <si>
-    <t xml:space="preserve">www.arkema.com</t>
+    <t xml:space="preserve">Arkema.com arkema.fr arkema.us</t>
   </si>
   <si>
     <t xml:space="preserve">Eco-conception</t>
@@ -270,16 +270,16 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="0.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -296,7 +296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -307,7 +307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -318,7 +318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
@@ -329,7 +329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
@@ -340,7 +340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>13</v>
       </c>
@@ -352,13 +352,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="www.arkema.com"/>
-    <hyperlink ref="C3" r:id="rId2" display="www.arkema.com"/>
-    <hyperlink ref="C4" r:id="rId3" display="www.arkema.com"/>
-    <hyperlink ref="C5" r:id="rId4" display="www.arkema.com"/>
-    <hyperlink ref="C6" r:id="rId5" display="www.arkema.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -387,7 +380,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/assets/rse.xlsx
+++ b/assets/rse.xlsx
@@ -41,7 +41,7 @@
     <t xml:space="preserve">"innovation" OR  ~innovation OR "innovation collaborative" OR "innovation ouverte" OR "collaboratif" OR "collaborative" OR "collaboration" "partenariat" OR "innovating" OR "open innovation" OR "partnership"</t>
   </si>
   <si>
-    <t xml:space="preserve">Arkema.com arkema.fr arkema.us</t>
+    <t xml:space="preserve">$brand.com $brand.fr $brand.us</t>
   </si>
   <si>
     <t xml:space="preserve">Eco-conception</t>
@@ -270,7 +270,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -279,7 +279,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="0.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -380,7 +380,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/assets/rse.xlsx
+++ b/assets/rse.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t xml:space="preserve">index</t>
   </si>
@@ -38,34 +38,28 @@
     <t xml:space="preserve">Innovation</t>
   </si>
   <si>
-    <t xml:space="preserve">"innovation" OR  ~innovation OR "innovation collaborative" OR "innovation ouverte" OR "collaboratif" OR "collaborative" OR "collaboration" "partenariat" OR "innovating" OR "open innovation" OR "partnership"</t>
+    <t xml:space="preserve">"dette" OR "solvabilite" OR "deficite"</t>
   </si>
   <si>
     <t xml:space="preserve">$brand.com $brand.fr $brand.us</t>
   </si>
   <si>
-    <t xml:space="preserve">Eco-conception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"éco-conception" OR  ~éco-conception OR "eco-design" OR  ~eco-design OR "écoconception" OR  ~écoconception OR "ecodesign" OR  ~ecodesign OR "éco-socio-conception" OR "social eco-design" OR "allègement des matériaux" OR "material weight reduction" OR "économie circulaire" OR "circular economy" OR "ACV" OR "LCA" OR "analyse du cycle de vie" OR "lifecycle analysis" OR "allongement de la durée de vie" OR "extension of product life" OR "recyclabilité" OR "recyclability" OR "reusability" OR "recyclé" OR "recycled" OR "valorisation énergétique" OR "energy valorization" OR "valorisation matière" OR "material valorization" OR "material recovery"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risques et impacts environnementaux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"bio-sourcé" OR ~bio-sourcé "biosourcé" OR "bio sourcé" OR "biobased" OR "bio-sourced" OR "bio sourced" OR "biodiversité" OR "biodiversity" OR "consommation AND eau" OR "water consumption" OR "consommation énergie" OR "energy consumption" OR "production de déchets" OR "waste production" OR "écologie industrielle" OR "industrial ecology" OR "énergies renouvelables" OR "renewable energy" OR "changement climatique" OR "climate change" OR "management de l'environnement" OR "environment management" OR "couche d'ozone" OR "ozone layer" OR "émissions de gaz à effet de serre" OR "greenhouse gases emissions" OR "GES" OR "GHG" OR "habitat durable" OR "sustainable habitat" OR "sustainable housing" OR "rejets" OR "emissions" OR "isolation" OR "insulation" OR "pollution" OR "ressources naturelles" OR "natural resources" OR "ressources fossiles" OR "fossile resources" OR "non-renouvelable" OR "non-renewable" OR "packaging" OR "pack" OR "déchets" OR "waste" OR "empreinte" OR "footprint" OR "carburant" OR "fuel" OR "oil" OR "gas" OR "organiques" OR "organic"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethique des affaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"corruption" OR ~corruption OR "bribery" OR "concurrence" OR "competition" OR "confidentialité" OR "confidentiality" OR "gestes commerciaux" OR "commercial gestures" OR "honnêteté" OR "honest" OR "éthique" OR "ethical" OR "conflit" OR "conflict" OR "intérpet OR "interest" OR "opérations d'initiés" OR "insider trading" OR "insider dealing" OR "droit" OR "right" OR "droits" OR "rights" OR "respect des règlementations" OR "regulatory compliance" OR "respect" OR "compliance" OR "achats responsables" OR "sustainable procurement" OR "responsible purchasing" OR "équitable" OR "fair"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gouvernance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"gouvernance" OR ~gouvernance OR "governance" OR "transparence" OR ~transparence OR "transparency" OR "alerte" OR "alert" OR "prise de décision" OR "decision making" OR "management" OR "décisionnel" OR "decision-making procedure" OR "agilité" OR "agiltity" OR "agile" OR "amende" OR "fine" OR "penalty"</t>
+    <t xml:space="preserve">Bilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"bilan" OR "resultats" OR "ebitda"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perspective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"persepctives" OR "prise de position"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actionnaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dividendes OR actionnaire OR valorisation</t>
   </si>
   <si>
     <t xml:space="preserve">Nm entreprise</t>
@@ -270,13 +264,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="0.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="101.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.65"/>
@@ -340,17 +334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -385,28 +369,28 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="str">
         <f aca="false">Input!A1</f>
         <v>index</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">Input!A2</f>
@@ -422,11 +406,11 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">Input!A3</f>
-        <v>Eco-conception</v>
+        <v>Bilan</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2400</v>
@@ -434,34 +418,34 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">Input!A4</f>
-        <v>Risques et impacts environnementaux</v>
+        <v>Perspective</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="str">
         <f aca="false">Input!A5</f>
-        <v>Ethique des affaires</v>
+        <v>Actionnaire</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="str">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <f aca="false">Input!A6</f>
-        <v>Gouvernance</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">Input!A7</f>
@@ -470,7 +454,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">Input!A8</f>
@@ -479,7 +463,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">Input!A9</f>
@@ -488,7 +472,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">Input!A10</f>
@@ -497,7 +481,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">Input!A11</f>
@@ -506,7 +490,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">Input!A12</f>
@@ -515,7 +499,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">Input!A13</f>
@@ -524,7 +508,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">Input!A14</f>
@@ -533,7 +517,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">Input!A15</f>

--- a/assets/rse.xlsx
+++ b/assets/rse.xlsx
@@ -20,8 +20,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Site à exclure:
+$brand est automatiquement remplacé par la marque</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Ne retient que les pages qui ont  un paragraphe d'au minimum x caractères</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t xml:space="preserve">index</t>
   </si>
@@ -32,34 +71,43 @@
     <t xml:space="preserve">exclude</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciblage clé</t>
+    <t xml:space="preserve">ciblage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">densite</t>
   </si>
   <si>
     <t xml:space="preserve">Innovation</t>
   </si>
   <si>
-    <t xml:space="preserve">"dette" OR "solvabilite" OR "deficite"</t>
+    <t xml:space="preserve">"innovation" OR  ~innovation OR "innovation collaborative" OR "innovation ouverte" OR "collaboratif" OR "collaborative" OR "collaboration" "partenariat" OR "innovating" OR "open innovation" OR "partnership"</t>
   </si>
   <si>
     <t xml:space="preserve">$brand.com $brand.fr $brand.us</t>
   </si>
   <si>
-    <t xml:space="preserve">Bilan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"bilan" OR "resultats" OR "ebitda"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perspective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"persepctives" OR "prise de position"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actionnaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dividendes OR actionnaire OR valorisation</t>
+    <t xml:space="preserve">Eco-conception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"éco-conception" OR  ~éco-conception OR "eco-design" OR  ~eco-design OR "écoconception" OR  ~écoconception OR "ecodesign" OR  ~ecodesign OR "éco-socio-conception" OR "social eco-design" OR "allègement des matériaux" OR "material weight reduction" OR "économie circulaire" OR "circular economy" OR "ACV" OR "LCA" OR "analyse du cycle de vie" OR "lifecycle analysis" OR "allongement de la durée de vie" OR "extension of product life" OR "recyclabilité" OR "recyclability" OR "reusability" OR "recyclé" OR "recycled" OR "valorisation énergétique" OR "energy valorization" OR "valorisation matière" OR "material valorization" OR "material recovery"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risques et impacts environnementaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"bio-sourcé" OR ~bio-sourcé "biosourcé" OR "bio sourcé" OR "biobased" OR "bio-sourced" OR "bio sourced" OR "biodiversité" OR "biodiversity" OR "consommation AND eau" OR "water consumption" OR "consommation énergie" OR "energy consumption" OR "production de déchets" OR "waste production" OR "écologie industrielle" OR "industrial ecology" OR "énergies renouvelables" OR "renewable energy" OR "changement climatique" OR "climate change" OR "management de l'environnement" OR "environment management" OR "couche d'ozone" OR "ozone layer" OR "émissions de gaz à effet de serre" OR "greenhouse gases emissions" OR "GES" OR "GHG" OR "habitat durable" OR "sustainable habitat" OR "sustainable housing" OR "rejets" OR "emissions" OR "isolation" OR "insulation" OR "pollution" OR "ressources naturelles" OR "natural resources" OR "ressources fossiles" OR "fossile resources" OR "non-renouvelable" OR "non-renewable" OR "packaging" OR "pack" OR "déchets" OR "waste" OR "empreinte" OR "footprint" OR "carburant" OR "fuel" OR "oil" OR "gas" OR "organiques" OR "organic"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethique des affaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"corruption" OR ~corruption OR "bribery" OR "concurrence" OR "competition" OR "confidentialité" OR "confidentiality" OR "gestes commerciaux" OR "commercial gestures" OR "honnêteté" OR "honest" OR "éthique" OR "ethical" OR "conflit" OR "conflict" OR "intérpet OR "interest" OR "opérations d'initiés" OR "insider trading" OR "insider dealing" OR "droit" OR "right" OR "droits" OR "rights" OR "respect des règlementations" OR "regulatory compliance" OR "respect" OR "compliance" OR "achats responsables" OR "sustainable procurement" OR "responsible purchasing" OR "équitable" OR "fair"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gouvernance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"gouvernance" OR ~gouvernance OR "governance" OR "transparence" OR ~transparence OR "transparency" OR "alerte" OR "alert" OR "prise de décision" OR "decision making" OR "management" OR "décisionnel" OR "decision-making procedure" OR "agilité" OR "agiltity" OR "agile" OR "amende" OR "fine" OR "penalty"</t>
   </si>
   <si>
     <t xml:space="preserve">Nm entreprise</t>
@@ -261,18 +309,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="101.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="74.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.65"/>
   </cols>
   <sheetData>
@@ -289,52 +337,80 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
+      <c r="E3" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -343,6 +419,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -369,28 +446,28 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="str">
         <f aca="false">Input!A1</f>
         <v>index</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="str">
         <f aca="false">Input!A2</f>
@@ -406,11 +483,11 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="str">
         <f aca="false">Input!A3</f>
-        <v>Bilan</v>
+        <v>Eco-conception</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2400</v>
@@ -418,34 +495,34 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="str">
         <f aca="false">Input!A4</f>
-        <v>Perspective</v>
+        <v>Risques et impacts environnementaux</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="str">
         <f aca="false">Input!A5</f>
-        <v>Actionnaire</v>
+        <v>Ethique des affaires</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="str">
         <f aca="false">Input!A6</f>
-        <v>0</v>
+        <v>Gouvernance</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">Input!A7</f>
@@ -454,7 +531,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="n">
         <f aca="false">Input!A8</f>
@@ -463,7 +540,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">Input!A9</f>
@@ -472,7 +549,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">Input!A10</f>
@@ -481,7 +558,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">Input!A11</f>
@@ -490,7 +567,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">Input!A12</f>
@@ -499,7 +576,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">Input!A13</f>
@@ -508,7 +585,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">Input!A14</f>
@@ -517,7 +594,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">Input!A15</f>

--- a/assets/rse.xlsx
+++ b/assets/rse.xlsx
@@ -312,13 +312,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="74.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="74.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.65"/>
@@ -352,7 +352,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,7 +366,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -380,7 +380,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,7 +394,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,7 +408,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/assets/rse.xlsx
+++ b/assets/rse.xlsx
@@ -312,7 +312,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -352,7 +352,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,7 +366,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -380,7 +380,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,7 +394,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,7 +408,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/assets/rse.xlsx
+++ b/assets/rse.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="Output" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>index</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Execute</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>True</t>
@@ -636,7 +633,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +747,7 @@
         <v>250</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/assets/rse.xlsx
+++ b/assets/rse.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>index</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>"innovation" OR  ~innovation OR "innovation collaborative" OR "innovation ouverte" OR "collaboratif" OR "collaborative" OR "collaboration" "partenariat" OR "innovating" OR "open innovation" OR "partnership"</t>
-  </si>
-  <si>
-    <t>$brand.com $brand.fr $brand.us</t>
   </si>
   <si>
     <t>Eco-conception</t>
@@ -633,7 +630,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -672,82 +669,72 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="E2">
         <v>250</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="E3">
         <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="E4">
         <v>250</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="E5">
         <v>250</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="E6">
         <v>250</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -778,28 +765,28 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="str">
         <f>Input!A1</f>
         <v>index</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="str">
         <f>Input!A2</f>
@@ -815,7 +802,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="str">
         <f>Input!A3</f>
@@ -827,7 +814,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="str">
         <f>Input!A4</f>
@@ -836,7 +823,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="str">
         <f>Input!A5</f>
@@ -845,7 +832,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="str">
         <f>Input!A6</f>
@@ -854,7 +841,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <f>Input!A7</f>
@@ -863,7 +850,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <f>Input!A8</f>
@@ -872,7 +859,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <f>Input!A9</f>
@@ -881,7 +868,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <f>Input!A10</f>
@@ -890,7 +877,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <f>Input!A11</f>
@@ -899,7 +886,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <f>Input!A12</f>
@@ -908,7 +895,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <f>Input!A13</f>
@@ -917,7 +904,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <f>Input!A14</f>
@@ -926,7 +913,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <f>Input!A15</f>

--- a/assets/rse.xlsx
+++ b/assets/rse.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="Output" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>index</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>$brand.com $brand.fr $brand.us</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>https://fr.wikipedia.org/wiki/Responsabilit%C3%A9_soci%C3%A9tale_des_entreprises</t>
+  </si>
+  <si>
+    <t>Projection</t>
   </si>
 </sst>
 </file>
@@ -627,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,10 +651,12 @@
     <col min="2" max="2" width="74.28515625" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="53" customWidth="1"/>
+    <col min="8" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,87 +675,103 @@
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E2">
         <v>250</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E3">
         <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E4">
         <v>250</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E5">
         <v>250</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E6">
         <v>250</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/assets/rse.xlsx
+++ b/assets/rse.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>index</t>
   </si>
@@ -136,12 +136,6 @@
   </si>
   <si>
     <t>$brand.com $brand.fr $brand.us</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>https://fr.wikipedia.org/wiki/Responsabilit%C3%A9_soci%C3%A9tale_des_entreprises</t>
   </si>
   <si>
     <t>Projection</t>
@@ -642,7 +636,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +670,7 @@
         <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -695,9 +689,6 @@
       <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -713,7 +704,7 @@
         <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -730,7 +721,7 @@
         <v>250</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -747,7 +738,7 @@
         <v>250</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -764,7 +755,7 @@
         <v>250</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/assets/rse.xlsx
+++ b/assets/rse.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhoareau\PycharmProjects\MaterialityMatrix\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mimip\Documents\0. ESPACE PRO\1. CO-PRODUCTION\GNIS_with RSEval\LIVRABLES\01. Etude doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2150" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>index</t>
   </si>
@@ -84,36 +84,9 @@
     <t>Innovation</t>
   </si>
   <si>
-    <t>"innovation" OR  ~innovation OR "innovation collaborative" OR "innovation ouverte" OR "collaboratif" OR "collaborative" OR "collaboration" "partenariat" OR "innovating" OR "open innovation" OR "partnership"</t>
-  </si>
-  <si>
-    <t>Eco-conception</t>
-  </si>
-  <si>
-    <t>"éco-conception" OR  ~éco-conception OR "eco-design" OR  ~eco-design OR "écoconception" OR  ~écoconception OR "ecodesign" OR  ~ecodesign OR "éco-socio-conception" OR "social eco-design" OR "allègement des matériaux" OR "material weight reduction" OR "économie circulaire" OR "circular economy" OR "ACV" OR "LCA" OR "analyse du cycle de vie" OR "lifecycle analysis" OR "allongement de la durée de vie" OR "extension of product life" OR "recyclabilité" OR "recyclability" OR "reusability" OR "recyclé" OR "recycled" OR "valorisation énergétique" OR "energy valorization" OR "valorisation matière" OR "material valorization" OR "material recovery"</t>
-  </si>
-  <si>
-    <t>Risques et impacts environnementaux</t>
-  </si>
-  <si>
-    <t>"bio-sourcé" OR ~bio-sourcé "biosourcé" OR "bio sourcé" OR "biobased" OR "bio-sourced" OR "bio sourced" OR "biodiversité" OR "biodiversity" OR "consommation AND eau" OR "water consumption" OR "consommation énergie" OR "energy consumption" OR "production de déchets" OR "waste production" OR "écologie industrielle" OR "industrial ecology" OR "énergies renouvelables" OR "renewable energy" OR "changement climatique" OR "climate change" OR "management de l'environnement" OR "environment management" OR "couche d'ozone" OR "ozone layer" OR "émissions de gaz à effet de serre" OR "greenhouse gases emissions" OR "GES" OR "GHG" OR "habitat durable" OR "sustainable habitat" OR "sustainable housing" OR "rejets" OR "emissions" OR "isolation" OR "insulation" OR "pollution" OR "ressources naturelles" OR "natural resources" OR "ressources fossiles" OR "fossile resources" OR "non-renouvelable" OR "non-renewable" OR "packaging" OR "pack" OR "déchets" OR "waste" OR "empreinte" OR "footprint" OR "carburant" OR "fuel" OR "oil" OR "gas" OR "organiques" OR "organic"</t>
-  </si>
-  <si>
-    <t>Ethique des affaires</t>
-  </si>
-  <si>
-    <t>"corruption" OR ~corruption OR "bribery" OR "concurrence" OR "competition" OR "confidentialité" OR "confidentiality" OR "gestes commerciaux" OR "commercial gestures" OR "honnêteté" OR "honest" OR "éthique" OR "ethical" OR "conflit" OR "conflict" OR "intérpet OR "interest" OR "opérations d'initiés" OR "insider trading" OR "insider dealing" OR "droit" OR "right" OR "droits" OR "rights" OR "respect des règlementations" OR "regulatory compliance" OR "respect" OR "compliance" OR "achats responsables" OR "sustainable procurement" OR "responsible purchasing" OR "équitable" OR "fair"</t>
-  </si>
-  <si>
     <t>Gouvernance</t>
   </si>
   <si>
-    <t>"gouvernance" OR ~gouvernance OR "governance" OR "transparence" OR ~transparence OR "transparency" OR "alerte" OR "alert" OR "prise de décision" OR "decision making" OR "management" OR "décisionnel" OR "decision-making procedure" OR "agilité" OR "agiltity" OR "agile" OR "amende" OR "fine" OR "penalty"</t>
-  </si>
-  <si>
-    <t>Nm entreprise</t>
-  </si>
-  <si>
     <t>Date du relevé</t>
   </si>
   <si>
@@ -126,26 +99,77 @@
     <t>Score</t>
   </si>
   <si>
-    <t>ARKEMA</t>
-  </si>
-  <si>
     <t>Execute</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>$brand.com $brand.fr $brand.us</t>
-  </si>
-  <si>
     <t>Projection</t>
+  </si>
+  <si>
+    <t>Nom entreprise</t>
+  </si>
+  <si>
+    <t>"GNIS" OR "groupement national interprofessionnel des semences et plants" OR "interprofession des semences" OR "interprofession des plants" OR "filière semences" OR "filière plants"</t>
+  </si>
+  <si>
+    <t>Droits de l'Homme</t>
+  </si>
+  <si>
+    <t>Relations et conditions de travail</t>
+  </si>
+  <si>
+    <t>Environnement</t>
+  </si>
+  <si>
+    <t>Loyauté des pratiques</t>
+  </si>
+  <si>
+    <t>Questions relatives au consommateur</t>
+  </si>
+  <si>
+    <t>Communautés et développement local</t>
+  </si>
+  <si>
+    <t>"droits" OR "droits de l'Homme" OR "droits fondamentaux" OR "discrimination" OR "droit du travail" OR "devoir de vigilance" OR "enfant" OR "violation" OR "atteinte" OR "discrimination" OR "propriété"</t>
+  </si>
+  <si>
+    <t>"consommateur" OR "consommation" OR "affichage" OR "réclamation" OR "litige" OR "qualité produit" OR "données personnelles" OR "vie privée" OR "consommation responsable" OR "consommation durable" OR "éducation" OR "pédagogie"</t>
+  </si>
+  <si>
+    <t>"communauté" OR "communautés" OR "implication" OR "proximité" OR "vie locale" OR ~local OR "territoire" OR "création de valeur" OR "création de richesse" OR "emploi" OR "empreinte socio-économique" OR "développement socio-économique" OR "externalités" OR "développement des compétences" OR "écosystème"</t>
+  </si>
+  <si>
+    <t>"gouvernance" OR "gouvernance partagée" OR "gouvernance participative" OR "alerte" OR "prise de décision" OR "management" OR "décisionnel" OR "agilité" OR "agile" OR "amende" OR "partage de valeur"</t>
+  </si>
+  <si>
+    <t>"conditions de travail" OR "décent" OR "sous-traitant" OR "dialogue social" OR "partenaires sociaux" OR "santé" OR "sécurité" OR ~bien-être OR "RPS" OR "psychosociaux" OR "suicide" OR ~burn-out OR "TMS" OR "troubles musculo-squelettiques" OR "employabilité" OR "risque" OR "protection" OR "QVT" OR "qualité de vie au travail" OR "pénibilité" OR "égalité" OR "diversité"</t>
+  </si>
+  <si>
+    <t>"éthique" OR "corruption" OR "conflit d'intérêts" OR "lobbying" OR "lobby" OR "déloyal" OR "monopole" OR "achats responsables" OR "achat responsable" OR "approvisionnement" OR "chaîne de valeur" OR "fournisseur" OR "sous-traitant" OR "traçabilité" OR "alerte" OR "gouvernance" OR "loyauté" OR "concurrence" OR "confidentialité" OR "honnêteté" OR "éthique" OR "conflit d'intérêts" OR "opération d'initiés" OR "respect des règlementations" OR "équitable"</t>
+  </si>
+  <si>
+    <t>"environnement" OR "prévention" OR "impact" OR "pollution" OR "dégradation" OR "émissions" OR "gaz à effet de serre" OR "énergie" OR "eau" OR "rejets" ET "eau" OR "déchets" OR "intrants" OR "chimique" OR "toxique" OR "CMR" OR "cancérogène mutagène reprotoxique" OR "odeur" OR "bruit" OR "consommation" OR "ressource" OR "matière première" OR "déchets" OR "gaspillage" OR "nappe phréatique" OR "changement climatique" OR "réchauffement climatique" OR "bas carbone" OR "économie circulaire" OR "mobilité" OR "bio-sourcé" OR "bio sourcé" OR "biodiversité" OR "production de déchets" OR "écologie industrielle" OR "énergie renouvelable" OR "management de l'environnement" OR "couche d'ozone" OR "ressource naturelle" OR "ressource fossile" OR "non-renouvelable" OR "packaging" OR "emballage" OR "empreinte" OR "carburant" OR "organique" OR "bio" OR "biologique" OR "éco-conception" OR  ~éco-conception OR "écoconception" OR  ~écoconception OR "éco-socio-conception" OR "allègement des matériaux" OR "ACV" OR "analyse du cycle de vie" OR "réduction" OR "allongement de la durée de vie" OR "recyclable" OR "recyclé" OR "valorisation énergétique" OR "valorisation matière"</t>
+  </si>
+  <si>
+    <t>$brand.com $brand.fr</t>
+  </si>
+  <si>
+    <t>"innovation" OR  ~innovation OR "innovation collaborative" OR "innovation ouverte" OR "collaboratif" OR "collaboration" OR "partenariat" OR "open innovation" OR "open source"</t>
+  </si>
+  <si>
+    <t>Générique</t>
+  </si>
+  <si>
+    <t>"responsabilité" OR "responsabilité sociétale" OR "responsabilité environnementale" OR "RSE" OR "RSC" OR "RSO" OR "responsabilité sociétale collective" OR "responsabilité sociale collective" OR "développement durable" OR "DD"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -160,6 +184,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -189,10 +220,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -291,7 +329,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -334,7 +372,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -633,129 +671,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39" style="4" customWidth="1"/>
+    <col min="2" max="2" width="74.26953125" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="6" width="10.7265625" customWidth="1"/>
     <col min="7" max="7" width="53" customWidth="1"/>
-    <col min="8" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="8" max="1025" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>250</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>250</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>250</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>250</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>250</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -768,49 +823,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="6" max="1025" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="str">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="str">
         <f>Input!A1</f>
         <v>index</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B2" t="str">
-        <f>Input!A2</f>
+        <f>Input!A10</f>
         <v>Innovation</v>
       </c>
       <c r="D2">
@@ -821,124 +876,129 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="str">
-        <f>Input!A3</f>
-        <v>Eco-conception</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="e">
+        <f>Input!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D3">
         <v>2400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="str">
+        <v>15</v>
+      </c>
+      <c r="B4" t="e">
+        <f>Input!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="e">
+        <f>Input!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="str">
+        <f>Input!A3</f>
+        <v>Gouvernance</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="str">
         <f>Input!A4</f>
-        <v>Risques et impacts environnementaux</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="str">
+        <v>Droits de l'Homme</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="str">
         <f>Input!A5</f>
-        <v>Ethique des affaires</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="str">
+        <v>Relations et conditions de travail</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="str">
         <f>Input!A6</f>
-        <v>Gouvernance</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
+        <v>Environnement</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="str">
         <f>Input!A7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
+        <v>Loyauté des pratiques</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="str">
         <f>Input!A8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>Questions relatives au consommateur</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="str">
         <f>Input!A9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <f>Input!A10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <f>Input!A11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <f>Input!A12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>Communautés et développement local</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <f>Input!A13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B13" t="e">
+        <f>Input!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <f>Input!A14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B14" t="e">
+        <f>Input!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <f>Input!A15</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B15" t="e">
+        <f>Input!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/assets/rse.xlsx
+++ b/assets/rse.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mimip\Documents\0. ESPACE PRO\1. CO-PRODUCTION\GNIS_with RSEval\LIVRABLES\01. Etude doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhoareau\PycharmProjects\MaterialityMatrix\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2150" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>index</t>
   </si>
@@ -674,21 +674,21 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" style="4" customWidth="1"/>
-    <col min="2" max="2" width="74.26953125" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="6" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="53" customWidth="1"/>
-    <col min="8" max="1025" width="10.7265625" customWidth="1"/>
+    <col min="8" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -711,13 +711,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E2">
         <v>250</v>
       </c>
@@ -725,7 +728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -735,8 +738,14 @@
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>250</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -746,8 +755,14 @@
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>250</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -757,8 +772,14 @@
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>250</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -768,8 +789,14 @@
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>250</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -779,8 +806,14 @@
       <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>250</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -790,8 +823,14 @@
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>250</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -801,8 +840,14 @@
       <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>250</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -811,6 +856,12 @@
       </c>
       <c r="C10" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="E10">
+        <v>250</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -829,17 +880,17 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="2" width="34.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="1025" width="10.7265625" customWidth="1"/>
+    <col min="6" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -860,7 +911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -876,7 +927,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -888,7 +939,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -897,7 +948,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -906,7 +957,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -915,7 +966,7 @@
         <v>Gouvernance</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -924,7 +975,7 @@
         <v>Droits de l'Homme</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -933,7 +984,7 @@
         <v>Relations et conditions de travail</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -942,7 +993,7 @@
         <v>Environnement</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -951,7 +1002,7 @@
         <v>Loyauté des pratiques</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -960,7 +1011,7 @@
         <v>Questions relatives au consommateur</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -969,7 +1020,7 @@
         <v>Communautés et développement local</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -978,7 +1029,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -987,7 +1038,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -996,7 +1047,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>

--- a/assets/rse.xlsx
+++ b/assets/rse.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhoareau\PycharmProjects\MaterialityMatrix\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mimip\Documents\0. ESPACE PRO\1. CO-PRODUCTION\GNIS_with RSEval\LIVRABLES\01. Etude doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2150" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>index</t>
   </si>
@@ -163,13 +163,19 @@
   </si>
   <si>
     <t>"responsabilité" OR "responsabilité sociétale" OR "responsabilité environnementale" OR "RSE" OR "RSC" OR "RSO" OR "responsabilité sociétale collective" OR "responsabilité sociale collective" OR "développement durable" OR "DD"</t>
+  </si>
+  <si>
+    <t>Prospective</t>
+  </si>
+  <si>
+    <t>"prospective" OR ~prospective OR "avenir" OR ~avenir OR "futur" OR ~futur OR "agtech" OR "AGTech" OR "AG Tech" OR "projection"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -189,6 +195,19 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -220,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -231,6 +250,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -671,24 +692,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39" style="4" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="74.26953125" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="6" width="10.7265625" customWidth="1"/>
     <col min="7" max="7" width="53" customWidth="1"/>
-    <col min="8" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="8" max="1025" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -711,16 +732,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E2">
         <v>250</v>
       </c>
@@ -728,7 +746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -738,14 +756,8 @@
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3">
-        <v>250</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -755,14 +767,8 @@
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4">
-        <v>250</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -772,14 +778,8 @@
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5">
-        <v>250</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -789,14 +789,8 @@
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6">
-        <v>250</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -806,14 +800,8 @@
       <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7">
-        <v>250</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -823,14 +811,8 @@
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8">
-        <v>250</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -840,14 +822,8 @@
       <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9">
-        <v>250</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -857,11 +833,16 @@
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10">
-        <v>250</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
+    </row>
+    <row r="11" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -880,17 +861,17 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="6" max="1025" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -911,7 +892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -927,7 +908,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -939,7 +920,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -948,7 +929,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -957,7 +938,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -966,7 +947,7 @@
         <v>Gouvernance</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -975,7 +956,7 @@
         <v>Droits de l'Homme</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -984,7 +965,7 @@
         <v>Relations et conditions de travail</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -993,7 +974,7 @@
         <v>Environnement</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1002,7 +983,7 @@
         <v>Loyauté des pratiques</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1011,7 +992,7 @@
         <v>Questions relatives au consommateur</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1020,7 +1001,7 @@
         <v>Communautés et développement local</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1029,7 +1010,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1038,7 +1019,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1047,7 +1028,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>

--- a/assets/rse.xlsx
+++ b/assets/rse.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mimip\Documents\0. ESPACE PRO\1. CO-PRODUCTION\GNIS_with RSEval\LIVRABLES\01. Etude doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhoareau\PycharmProjects\MaterialityMatrix\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2150" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2145" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>index</t>
   </si>
@@ -350,7 +350,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -393,7 +393,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -695,21 +695,21 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39" style="4" customWidth="1"/>
-    <col min="2" max="2" width="74.26953125" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="6" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="53" customWidth="1"/>
-    <col min="8" max="1025" width="10.7265625" customWidth="1"/>
+    <col min="8" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -732,12 +732,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
+    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E2">
         <v>250</v>
@@ -746,103 +749,154 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>250</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>250</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>250</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>250</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
+      <c r="E7">
+        <v>250</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>250</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>250</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>34</v>
+      <c r="E10">
+        <v>250</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="E11">
+        <v>250</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -861,17 +915,17 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="2" width="34.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="1025" width="10.7265625" customWidth="1"/>
+    <col min="6" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -892,12 +946,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="str">
-        <f>Input!A10</f>
+        <f>Input!A11</f>
         <v>Innovation</v>
       </c>
       <c r="D2">
@@ -908,7 +962,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -920,7 +974,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -929,7 +983,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -938,70 +992,70 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="str">
-        <f>Input!A3</f>
+        <f>Input!A4</f>
         <v>Gouvernance</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="str">
-        <f>Input!A4</f>
+        <f>Input!A5</f>
         <v>Droits de l'Homme</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="str">
-        <f>Input!A5</f>
+        <f>Input!A6</f>
         <v>Relations et conditions de travail</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="str">
-        <f>Input!A6</f>
+        <f>Input!A7</f>
         <v>Environnement</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="str">
-        <f>Input!A7</f>
+        <f>Input!A8</f>
         <v>Loyauté des pratiques</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="str">
-        <f>Input!A8</f>
+        <f>Input!A9</f>
         <v>Questions relatives au consommateur</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="str">
-        <f>Input!A9</f>
+        <f>Input!A10</f>
         <v>Communautés et développement local</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1010,7 +1064,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1073,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1028,7 +1082,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>

--- a/assets/rse.xlsx
+++ b/assets/rse.xlsx
@@ -175,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -199,15 +199,25 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -239,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -252,6 +262,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -695,7 +707,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,20 +744,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10">
         <v>250</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
